--- a/src/apps/researches/templates/result_form.xlsx
+++ b/src/apps/researches/templates/result_form.xlsx
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -152,6 +152,12 @@
     <font>
       <b/>
       <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
@@ -200,30 +206,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border/>
     <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFAAAAAA"/>
-      </top>
+      <right/>
       <bottom/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FFAAAAAA"/>
-      </top>
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -327,22 +321,13 @@
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thick">
@@ -364,7 +349,18 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
@@ -375,29 +371,20 @@
       </bottom>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <top style="thin">
@@ -416,7 +403,7 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -427,63 +414,11 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
       <top/>
       <bottom/>
     </border>
     <border>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
       <top/>
       <bottom/>
     </border>
@@ -495,10 +430,19 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -510,25 +454,10 @@
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -542,17 +471,26 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="3" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="6" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -570,13 +508,16 @@
     </xf>
     <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="2" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="2" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="17" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -592,58 +533,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="21" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="2" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="26" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="30" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="28" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf borderId="29" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -874,257 +811,242 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="23" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="27" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" ht="24.0" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" ht="24.0" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="E13" s="44"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" ht="10.5" customHeight="1">
-      <c r="A14" s="46"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" ht="42.0" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="A15" s="49"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+      <c r="A16" s="34"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="57"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="17">
